--- a/doc/DTC Machine.xlsx
+++ b/doc/DTC Machine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
   <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -247,95 +247,99 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>172.22.144.62:22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.22.144.63:22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户：root
+密码：dtcadmin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iP/PORT(ssh)(物理地址)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新iP/PORT(ssh)(物理地址)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.144.126:22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.144.124:22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.144.125:22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.215.97:22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.144.73:22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站，Agent，脚本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.215.53：22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户：crassus
+密码：nXxAEJNxnHVNoBxUh6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户：crassus（只读）
+密码：nXxAEJNxnHVNoBxUh6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.144.61:22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.145.136:22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.145.135:22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.24.75.19:22/1.1.1.1：24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.24.75.19:22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>DTC管理平台+DB，DTC Monitor网站+DB，DTCHttpd，AgentM DB，DTC DB，客户端SDK，Agent，AgentM，DTCCrontab，
 keepalived，脚本（监控数上报脚本，内存使用率上报脚本，agentm监控脚本，dtc监控脚本）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.22.144.62:22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.22.144.63:22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.24.75.19:22/1.1.1.1：24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户：root
-密码：dtcadmin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>iP/PORT(ssh)(物理地址)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新iP/PORT(ssh)(物理地址)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.144.126:22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.144.124:22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.144.125:22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.215.97:22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.144.73:22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DTC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>网站，Agent，脚本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编译器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.215.53：22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户：crassus
-密码：nXxAEJNxnHVNoBxUh6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户：crassus（只读）
-密码：nXxAEJNxnHVNoBxUh6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.144.61:22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.145.136:22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.145.135:22</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +427,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -472,13 +476,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -531,6 +546,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -555,13 +573,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1143000</xdr:colOff>
-          <xdr:row>62</xdr:row>
+          <xdr:row>63</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -880,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -896,13 +914,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -913,160 +931,158 @@
     </row>
     <row r="2" spans="1:5" s="14" customFormat="1" ht="27">
       <c r="A2" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" ht="27">
+    <row r="3" spans="1:5" s="14" customFormat="1" ht="27">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" ht="27">
+      <c r="A4" s="18"/>
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27">
-      <c r="A4" s="17"/>
-      <c r="B4" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="C4" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27">
+      <c r="A5" s="17"/>
+      <c r="B5" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27">
-      <c r="A6" s="15"/>
+      <c r="E5" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40.5" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>5</v>
+      <c r="E6" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="27">
       <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="27">
       <c r="A8" s="15"/>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="27">
+      <c r="A9" s="15"/>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="27">
-      <c r="A9" s="15" t="s">
+    <row r="10" spans="1:5" ht="27">
+      <c r="A10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="15"/>
-      <c r="B10" s="4" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="15"/>
+      <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="27">
-      <c r="A11" s="15"/>
-      <c r="B11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="27">
       <c r="A12" s="15"/>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>5</v>
@@ -1075,78 +1091,78 @@
     <row r="13" spans="1:5" ht="27">
       <c r="A13" s="15"/>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27">
       <c r="A14" s="15"/>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="27">
-      <c r="A15" s="15" t="s">
-        <v>8</v>
-      </c>
+      <c r="A15" s="15"/>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="3" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="27">
-      <c r="A16" s="15"/>
+      <c r="A16" s="15" t="s">
+        <v>8</v>
+      </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="27">
       <c r="A17" s="15"/>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="27">
       <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>6</v>
@@ -1155,27 +1171,40 @@
     <row r="19" spans="1:5" ht="27">
       <c r="A19" s="15"/>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="27">
+      <c r="A20" s="15"/>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1191,13 +1220,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>24</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>1143000</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>63</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
